--- a/src/test/resources/excel/xlsx/file1.xlsx
+++ b/src/test/resources/excel/xlsx/file1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="14325" windowHeight="3615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,57 +12,89 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <oleSize ref="A1:J11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期/时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>枚举1</t>
+  </si>
+  <si>
+    <t>枚举2</t>
+  </si>
+  <si>
+    <t>枚举3</t>
+  </si>
+  <si>
+    <t>double</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,102 +445,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2">
-        <v>42332</v>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
-        <f>$B2+$B3</f>
-        <v>3</v>
-      </c>
-      <c r="F2" t="b">
+        <v>3.2</v>
+      </c>
+      <c r="F2">
+        <v>11.11</v>
+      </c>
+      <c r="G2" t="b">
         <v>1</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>7</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.98333333333333339</v>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E4" si="0">$B3+$B4</f>
-        <v>5</v>
-      </c>
-      <c r="F3" t="b">
+        <v>3.3</v>
+      </c>
+      <c r="F3">
+        <v>11.12</v>
+      </c>
+      <c r="G3" t="b">
         <v>0</v>
       </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2">
+        <v>42341</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>8</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4">
-        <v>42332.984027777777</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F4" t="b">
+        <v>3.4</v>
+      </c>
+      <c r="F4">
+        <v>11.13</v>
+      </c>
+      <c r="G4" t="b">
         <v>1</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4">
+        <v>42341.827777777777</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+      <formula1>"请选择,AA,BB,CC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>"请选择,枚举1,枚举2,枚举3"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
